--- a/Y2 S2 Progress .xlsx
+++ b/Y2 S2 Progress .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Y2S1\Y2S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8B22C-3F33-4A31-9807-1366219E8FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B2F61B-EC84-4287-AC89-6AF6E69A60EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6B011D6D-4551-4832-B05D-D0D0861E857D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6B011D6D-4551-4832-B05D-D0D0861E857D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t xml:space="preserve">OSSA </t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,18 +238,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -387,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -426,9 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,6 +432,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,23 +748,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6724D8D-F948-4358-A489-D30FC123B2C0}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
@@ -804,14 +800,14 @@
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -830,7 +826,7 @@
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="42"/>
+      <c r="G3" s="39"/>
       <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
@@ -850,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -869,7 +865,7 @@
       <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="40"/>
       <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
@@ -877,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -896,7 +892,7 @@
       <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="19" t="s">
@@ -906,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -923,12 +919,12 @@
       <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="39"/>
       <c r="M6" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -945,7 +941,7 @@
       <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="40"/>
       <c r="L7" s="23" t="s">
         <v>26</v>
       </c>
@@ -953,7 +949,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
@@ -972,7 +968,7 @@
       <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -982,7 +978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="27" t="s">
         <v>25</v>
@@ -997,9 +993,9 @@
       <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
@@ -1014,9 +1010,9 @@
       <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -1035,14 +1031,14 @@
       <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -1053,12 +1049,12 @@
       <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="39"/>
       <c r="I12" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>16</v>
       </c>
@@ -1073,19 +1069,19 @@
       <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="40"/>
       <c r="I13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="33" t="s">
         <v>16</v>
       </c>
@@ -1093,14 +1089,14 @@
       <c r="F14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="38" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -1109,12 +1105,12 @@
       <c r="F15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="39"/>
       <c r="I15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37" t="s">
@@ -1127,12 +1123,12 @@
       <c r="F16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="40"/>
       <c r="I16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1141,11 +1137,11 @@
       <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1154,22 +1150,22 @@
       <c r="F18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1178,11 +1174,11 @@
       <c r="F20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1191,10 +1187,10 @@
       <c r="F21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1202,9 +1198,9 @@
       <c r="F22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1213,11 +1209,11 @@
       <c r="F23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1226,9 +1222,9 @@
       <c r="F24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1237,10 +1233,220 @@
       <c r="F25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="40"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="40"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G2:G4"/>
@@ -1249,6 +1455,12 @@
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
